--- a/barchart_1.xlsx
+++ b/barchart_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saras\Documents\Matplot_lib_tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF800921-1253-4984-94D8-363FB733CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74AD925-C722-4946-9291-9F6060D02153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,49 +33,49 @@
     <t>Maths Marks</t>
   </si>
   <si>
-    <t>Corrine Lencho</t>
-  </si>
-  <si>
-    <t>Unique Stefani</t>
-  </si>
-  <si>
-    <t>Nikki Paden</t>
-  </si>
-  <si>
-    <t>Nicole Sigmund</t>
-  </si>
-  <si>
-    <t>Claud Gertie</t>
-  </si>
-  <si>
-    <t>Genevieve Goodwin</t>
-  </si>
-  <si>
-    <t>Omolara Gracelyn</t>
-  </si>
-  <si>
-    <t>Josephine Ariel</t>
-  </si>
-  <si>
-    <t>Businge Dakarai</t>
-  </si>
-  <si>
-    <t>Jorja Lorne</t>
-  </si>
-  <si>
-    <t>Vin Meadow</t>
-  </si>
-  <si>
-    <t>Sharmaine Joel</t>
-  </si>
-  <si>
-    <t>Julianna Kassy</t>
-  </si>
-  <si>
-    <t>Chinedu Mark</t>
-  </si>
-  <si>
-    <t>Corna Liselotte</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>68</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>88</v>

--- a/barchart_1.xlsx
+++ b/barchart_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saras\Documents\Matplot_lib_tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74AD925-C722-4946-9291-9F6060D02153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123A28B-A5A2-44DD-A933-4771E0458C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,49 +33,49 @@
     <t>Maths Marks</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
+    <t>Sameer Liu</t>
+  </si>
+  <si>
+    <t>Willow Terrell</t>
+  </si>
+  <si>
+    <t>Zakaria Pierce</t>
+  </si>
+  <si>
+    <t>Miguel Horne</t>
+  </si>
+  <si>
+    <t>Vera Gordon</t>
+  </si>
+  <si>
+    <t>Alanis Cain</t>
+  </si>
+  <si>
+    <t>Junior Pittman</t>
+  </si>
+  <si>
+    <t>Gerard Ross</t>
+  </si>
+  <si>
+    <t>Olly Savage</t>
+  </si>
+  <si>
+    <t>Autumn Foley</t>
+  </si>
+  <si>
+    <t>Suzanna Hanson</t>
+  </si>
+  <si>
+    <t>Humzah Ventura</t>
+  </si>
+  <si>
+    <t>Rudi Rush</t>
+  </si>
+  <si>
+    <t>Areebah Donald</t>
+  </si>
+  <si>
+    <t>Emily-Rose Pickett</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>68</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>88</v>
@@ -535,5 +535,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>